--- a/Mission4_template.xlsx
+++ b/Mission4_template.xlsx
@@ -1,50 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caipr\Gits\Bioinformatics_Python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="396" windowWidth="27552" windowHeight="11592"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>TAGTCTT</t>
-  </si>
-  <si>
-    <t>TTTTGTA</t>
-  </si>
-  <si>
-    <t>TCTTTTA</t>
-  </si>
-  <si>
-    <t>AAATAAG</t>
-  </si>
-  <si>
-    <t>TTGTAAA</t>
-  </si>
-  <si>
-    <t>TATTTTC</t>
-  </si>
-  <si>
-    <t>TAATTTT</t>
-  </si>
-  <si>
-    <t>TGAAAAT</t>
-  </si>
-  <si>
-    <t>TTTTTAA</t>
-  </si>
-  <si>
-    <t>ATTAAAT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Rank</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -80,13 +55,46 @@
   <si>
     <t>Relative_Risk</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>H. Jeon</t>
+  </si>
+  <si>
+    <t>ACATTCC</t>
+  </si>
+  <si>
+    <t>CATTCCA</t>
+  </si>
+  <si>
+    <t>TCATTCC</t>
+  </si>
+  <si>
+    <t>CATTCCT</t>
+  </si>
+  <si>
+    <t>AACATTC</t>
+  </si>
+  <si>
+    <t>TACATTC</t>
+  </si>
+  <si>
+    <t>ATTCCAT</t>
+  </si>
+  <si>
+    <t>ATTCCTT</t>
+  </si>
+  <si>
+    <t>ATTTTTC</t>
+  </si>
+  <si>
+    <t>TTCATTC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -105,7 +113,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -665,59 +673,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -725,12 +731,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -772,7 +781,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -807,7 +816,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1019,317 +1028,320 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
-        <v>17</v>
+    <row r="1" spans="1:8">
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.8199999999999999E-9</v>
-      </c>
-      <c r="D5">
-        <v>144</v>
-      </c>
-      <c r="E5">
-        <v>1058</v>
-      </c>
-      <c r="F5">
-        <v>872</v>
-      </c>
-      <c r="G5">
-        <v>11779</v>
-      </c>
-      <c r="H5">
-        <v>1.7197</v>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6.3455893856504609E-52</v>
+      </c>
+      <c r="D5" s="3">
+        <v>157</v>
+      </c>
+      <c r="E5" s="3">
+        <v>237</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1132</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10166</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3.9770273178956428</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2.3499999999999999E-9</v>
-      </c>
-      <c r="D6">
-        <v>394</v>
-      </c>
-      <c r="E6">
-        <v>3806</v>
-      </c>
-      <c r="F6">
-        <v>622</v>
-      </c>
-      <c r="G6">
-        <v>9031</v>
-      </c>
-      <c r="H6">
-        <v>1.3080000000000001</v>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.4435680118607771E-43</v>
+      </c>
+      <c r="D6" s="3">
+        <v>163</v>
+      </c>
+      <c r="E6" s="3">
+        <v>231</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1441</v>
+      </c>
+      <c r="G6" s="3">
+        <v>9857</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3.2436125505060289</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <f t="shared" ref="A7:A14" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2.6700000000000001E-9</v>
-      </c>
-      <c r="D7">
-        <v>261</v>
-      </c>
-      <c r="E7">
-        <v>2292</v>
-      </c>
-      <c r="F7">
-        <v>755</v>
-      </c>
-      <c r="G7">
-        <v>10545</v>
-      </c>
-      <c r="H7">
-        <v>1.4388000000000001</v>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6.6093446817896797E-18</v>
+      </c>
+      <c r="D7" s="3">
+        <v>109</v>
+      </c>
+      <c r="E7" s="3">
+        <v>285</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1284</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10014</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2.434259215332796</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3.7900000000000004E-9</v>
-      </c>
-      <c r="D8">
-        <v>232</v>
-      </c>
-      <c r="E8">
-        <v>1985</v>
-      </c>
-      <c r="F8">
-        <v>784</v>
-      </c>
-      <c r="G8">
-        <v>10852</v>
-      </c>
-      <c r="H8">
-        <v>1.4766999999999999</v>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6.8714094322322247E-18</v>
+      </c>
+      <c r="D8" s="3">
+        <v>128</v>
+      </c>
+      <c r="E8" s="3">
+        <v>266</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1673</v>
+      </c>
+      <c r="G8" s="3">
+        <v>9625</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2.1939128772593079</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4.0400000000000001E-9</v>
-      </c>
-      <c r="D9">
-        <v>320</v>
-      </c>
-      <c r="E9">
-        <v>2963</v>
-      </c>
-      <c r="F9">
-        <v>696</v>
-      </c>
-      <c r="G9">
-        <v>9874</v>
-      </c>
-      <c r="H9">
-        <v>1.3645</v>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.083975652230727E-15</v>
+      </c>
+      <c r="D9" s="3">
+        <v>101</v>
+      </c>
+      <c r="E9" s="3">
+        <v>293</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1226</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10072</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2.3623065393628742</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4.3299999999999997E-9</v>
-      </c>
-      <c r="D10">
-        <v>321</v>
-      </c>
-      <c r="E10">
-        <v>2978</v>
-      </c>
-      <c r="F10">
-        <v>695</v>
-      </c>
-      <c r="G10">
-        <v>9859</v>
-      </c>
-      <c r="H10">
-        <v>1.3619000000000001</v>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.9994127173832859E-14</v>
+      </c>
+      <c r="D10" s="3">
+        <v>87</v>
+      </c>
+      <c r="E10" s="3">
+        <v>307</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1012</v>
+      </c>
+      <c r="G10" s="3">
+        <v>10286</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2.4651541903252339</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5.0799999999999998E-9</v>
-      </c>
-      <c r="D11">
-        <v>389</v>
-      </c>
-      <c r="E11">
-        <v>3771</v>
-      </c>
-      <c r="F11">
-        <v>627</v>
-      </c>
-      <c r="G11">
-        <v>9066</v>
-      </c>
-      <c r="H11">
-        <v>1.3033999999999999</v>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.909604270611209E-13</v>
+      </c>
+      <c r="D11" s="3">
+        <v>106</v>
+      </c>
+      <c r="E11" s="3">
+        <v>288</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1440</v>
+      </c>
+      <c r="G11" s="3">
+        <v>9858</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2.1108079526226731</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5.69E-9</v>
-      </c>
-      <c r="D12">
-        <v>316</v>
-      </c>
-      <c r="E12">
-        <v>2930</v>
-      </c>
-      <c r="F12">
-        <v>700</v>
-      </c>
-      <c r="G12">
-        <v>9907</v>
-      </c>
-      <c r="H12">
-        <v>1.3627</v>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.743717905112324E-9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>114</v>
+      </c>
+      <c r="E12" s="3">
+        <v>280</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1864</v>
+      </c>
+      <c r="G12" s="3">
+        <v>9434</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1.7537363020413499</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1.8600000000000001E-8</v>
-      </c>
-      <c r="D13">
-        <v>534</v>
-      </c>
-      <c r="E13">
-        <v>5570</v>
-      </c>
-      <c r="F13">
-        <v>482</v>
-      </c>
-      <c r="G13">
-        <v>7267</v>
-      </c>
-      <c r="H13">
-        <v>1.2113</v>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7.273838399862248E-9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>161</v>
+      </c>
+      <c r="E13" s="3">
+        <v>233</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3056</v>
+      </c>
+      <c r="G13" s="3">
+        <v>8242</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1.510698766842959</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2.1299999999999999E-8</v>
-      </c>
-      <c r="D14">
-        <v>279</v>
-      </c>
-      <c r="E14">
-        <v>2545</v>
-      </c>
-      <c r="F14">
-        <v>737</v>
-      </c>
-      <c r="G14">
-        <v>10292</v>
-      </c>
-      <c r="H14">
-        <v>1.3851</v>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3.6610499173600539E-8</v>
+      </c>
+      <c r="D14" s="3">
+        <v>108</v>
+      </c>
+      <c r="E14" s="3">
+        <v>286</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1826</v>
+      </c>
+      <c r="G14" s="3">
+        <v>9472</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1.696009696376646</v>
       </c>
     </row>
   </sheetData>
